--- a/Project Outputs for DONGLE01/Generate Files/BOM/Bill of Materials Tech-DONGLE01.xlsx
+++ b/Project Outputs for DONGLE01/Generate Files/BOM/Bill of Materials Tech-DONGLE01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\BENADUCE\Documents\GitHub\Dongle01\Project Outputs for DONGLE01\Generate Files\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#PCB#\PRJ_Dongle01\Project Outputs for DONGLE01\Generate Files\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CA17EE8-0D7F-4AFB-9B1A-E3D11B97EE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{076221BF-07D0-42C6-8076-E49E953EC2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{78602CF1-A8FC-46AD-8006-A40DE2D32DD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B155109C-8E9C-4239-9510-B517567E199B}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials Tech-DONGLE01" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="153">
   <si>
     <t>Comment</t>
   </si>
@@ -187,6 +187,27 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/150080BS75000/4489912</t>
+  </si>
+  <si>
+    <t>7V TVS</t>
+  </si>
+  <si>
+    <t>7V Clamp 15A (8/20µs) Ipp Tvs Diode Surface Mount SOT-23-3</t>
+  </si>
+  <si>
+    <t>D2, D3</t>
+  </si>
+  <si>
+    <t>WE-TVS_SOT23-3L</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/824021.pdf</t>
+  </si>
+  <si>
+    <t>824021</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/824021/3900544</t>
   </si>
   <si>
     <t>12401598E4#2A</t>
@@ -849,8 +870,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B74F265-4207-40B3-A0DD-F81E1134F916}">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6238BD-B82E-4B48-B618-91522F473341}">
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1065,10 +1086,10 @@
         <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>56</v>
@@ -1094,7 +1115,7 @@
         <v>62</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>63</v>
@@ -1120,33 +1141,33 @@
         <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>78</v>
@@ -1172,24 +1193,24 @@
         <v>84</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>90</v>
@@ -1215,7 +1236,7 @@
         <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>97</v>
@@ -1241,146 +1262,146 @@
         <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>137</v>
@@ -1406,10 +1427,36 @@
         <v>143</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>145</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
